--- a/Test/Testcase.uc1.xlsx
+++ b/Test/Testcase.uc1.xlsx
@@ -483,8 +483,8 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
         <v>67</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="1"/>
+        <f>C14*SIN(D14)</f>
         <v>-855519.97897532233</v>
       </c>
       <c r="F14" s="5"/>
